--- a/src/kraken_files/excel_files/XTZUSD.xlsx
+++ b/src/kraken_files/excel_files/XTZUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,116 +475,93 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C2" t="n">
-        <v>6.25</v>
+        <v>15.625</v>
       </c>
       <c r="D2" t="n">
-        <v>5.93777832</v>
+        <v>5.6243841792</v>
       </c>
       <c r="E2" t="n">
-        <v>6.07041966</v>
+        <v>5.847401919599999</v>
       </c>
       <c r="F2" t="n">
-        <v>6.131123856599999</v>
+        <v>5.905875938795999</v>
       </c>
       <c r="G2" t="n">
-        <v>3.153508901828306</v>
+        <v>4.766299910684979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C3" t="n">
-        <v>15.625</v>
+        <v>39.0625</v>
       </c>
       <c r="D3" t="n">
-        <v>5.6243841792</v>
+        <v>5.135489319425</v>
       </c>
       <c r="E3" t="n">
-        <v>5.847401919599999</v>
+        <v>5.4914456195125</v>
       </c>
       <c r="F3" t="n">
-        <v>5.905875938795999</v>
+        <v>5.546360075707625</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910684979</v>
+        <v>7.407935126357712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C4" t="n">
-        <v>39.0625</v>
+        <v>97.65625</v>
       </c>
       <c r="D4" t="n">
-        <v>5.135489319425</v>
+        <v>4.372813338429999</v>
       </c>
       <c r="E4" t="n">
-        <v>5.4914456195125</v>
+        <v>4.93212947897125</v>
       </c>
       <c r="F4" t="n">
-        <v>5.546360075707625</v>
+        <v>4.981450773760963</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357712</v>
+        <v>12.2180758773502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C5" t="n">
-        <v>97.65625</v>
+        <v>244.140625</v>
       </c>
       <c r="D5" t="n">
-        <v>4.372813338429999</v>
+        <v>3.1830388079</v>
       </c>
       <c r="E5" t="n">
-        <v>4.93212947897125</v>
+        <v>4.057584143435625</v>
       </c>
       <c r="F5" t="n">
-        <v>4.981450773760963</v>
+        <v>4.098159984869981</v>
       </c>
       <c r="G5" t="n">
-        <v>12.2180758773502</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C6" t="n">
-        <v>244.140625</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.1830388079</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.057584143435625</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.098159984869981</v>
-      </c>
-      <c r="G6" t="n">
         <v>22.33005007975584</v>
       </c>
     </row>
@@ -599,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +614,16 @@
       </c>
       <c r="B3" t="n">
         <v>6.265</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OIBWEE-4TLOO-BFC25Z</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.1311</v>
       </c>
     </row>
   </sheetData>
